--- a/Tables/Sources/gameplay/Shop/MonthCardConfig.xlsx
+++ b/Tables/Sources/gameplay/Shop/MonthCardConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17930"/>
+    <workbookView windowWidth="27930" windowHeight="6150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>double</t>
+    <t>float</t>
   </si>
   <si>
     <t>Id</t>
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -98,37 +98,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -136,16 +157,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,6 +187,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -165,77 +210,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,13 +256,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,13 +388,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,151 +424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,6 +466,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -484,7 +499,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,7 +519,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,17 +539,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,36 +562,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,7 +1072,7 @@
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1086,7 +1086,7 @@
     <col min="7" max="16380" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>

--- a/Tables/Sources/gameplay/Shop/MonthCardConfig.xlsx
+++ b/Tables/Sources/gameplay/Shop/MonthCardConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27930" windowHeight="6150"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,11 +75,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -98,6 +98,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -105,14 +120,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,6 +130,68 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,52 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -187,55 +211,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,6 +256,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -268,19 +340,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,79 +412,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,67 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,17 +465,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,31 +489,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,23 +537,28 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,7 +1072,7 @@
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1137,13 +1137,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
@@ -1176,8 +1176,8 @@
       <c r="C5" s="3">
         <v>30</v>
       </c>
-      <c r="D5" s="3">
-        <v>500</v>
+      <c r="D5" s="2">
+        <v>200</v>
       </c>
       <c r="E5" s="2">
         <v>500</v>
